--- a/biology/Botanique/Bonamia_boivinii/Bonamia_boivinii.xlsx
+++ b/biology/Botanique/Bonamia_boivinii/Bonamia_boivinii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bonamia boivinii est une espèce de plantes de la famille des Convolvulaceae, endémique de Madagascar, classée espèce vulnérable par l’Union internationale pour la conservation de la nature.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’épithète spécifique boivinii est un hommage au botaniste Louis Hyacinthe Boivin qui a récolté, lors de son voyage dans le Sud-Ouest de l'océan Indien entre 1847 et 1852, le spécimen[2] ayant servi pour la description par Johannes Gottfried Hallier[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’épithète spécifique boivinii est un hommage au botaniste Louis Hyacinthe Boivin qui a récolté, lors de son voyage dans le Sud-Ouest de l'océan Indien entre 1847 et 1852, le spécimen ayant servi pour la description par Johannes Gottfried Hallier.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C’est une liane ligneuse glabre, aux feuilles ovales pointues et aux fleurs avec un calice globuleux[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est une liane ligneuse glabre, aux feuilles ovales pointues et aux fleurs avec un calice globuleux.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bonamia boivinii est endémique du nord de Madagascar, dans la province d’Antsiranana depuis le niveau de la mer jusqu’à 350 mètres d’altitude[4],[4]. Le spécimen ayant servi à la description de l’espèce a été prélevé sur l’île de Nosy Be, sur les hauteurs semiboisées entre Hell-Ville et le village des arabes[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bonamia boivinii est endémique du nord de Madagascar, dans la province d’Antsiranana depuis le niveau de la mer jusqu’à 350 mètres d’altitude,. Le spécimen ayant servi à la description de l’espèce a été prélevé sur l’île de Nosy Be, sur les hauteurs semiboisées entre Hell-Ville et le village des arabes.
 </t>
         </is>
       </c>
@@ -604,10 +622,12 @@
           <t>Statut de conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bonamia boivinii est classée espèce vulnérable par l’Union internationale pour la conservation de la nature[4].
-L’espèce est menacée par la destruction de son habitat due aux incendies, à l’agriculture, à l’exploitation forestière et l’exploitation minière artisanale[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bonamia boivinii est classée espèce vulnérable par l’Union internationale pour la conservation de la nature.
+L’espèce est menacée par la destruction de son habitat due aux incendies, à l’agriculture, à l’exploitation forestière et l’exploitation minière artisanale.
 </t>
         </is>
       </c>
